--- a/inputs/files/portfolio.xlsx
+++ b/inputs/files/portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenri\Google Drive\Cosas del trabajo\SAS\SASUniversityEdition\myfolders\masp1\inputs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD7425A-7798-4725-9862-58EEC4A10A79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFB6C15-0E78-4845-8232-21633B7989A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13005" xr2:uid="{8336AA02-9FB1-4A22-B4BE-C78E597AAFD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="256">
   <si>
     <t>benefit</t>
   </si>
@@ -787,12 +787,18 @@
   </si>
   <si>
     <t>prima única</t>
+  </si>
+  <si>
+    <t>retirement_age</t>
+  </si>
+  <si>
+    <t>freq_pymt_year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -828,8 +834,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{BE23BC1F-3C12-44E5-8408-17F4E1185684}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1138,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD08C1A7-50F4-4028-AE86-4A5D046114EE}">
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1185,7 @@
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1167,8 +1201,14 @@
       <c r="E1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1224,14 @@
       <c r="E2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1201,8 +1247,14 @@
       <c r="E3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1218,8 +1270,14 @@
       <c r="E4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1235,8 +1293,14 @@
       <c r="E5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1252,8 +1316,14 @@
       <c r="E6" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1269,8 +1339,14 @@
       <c r="E7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1286,8 +1362,14 @@
       <c r="E8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1303,8 +1385,14 @@
       <c r="E9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1320,8 +1408,14 @@
       <c r="E10" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1337,8 +1431,14 @@
       <c r="E11" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1354,8 +1454,14 @@
       <c r="E12" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1371,8 +1477,14 @@
       <c r="E13" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1388,8 +1500,14 @@
       <c r="E14" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1405,8 +1523,14 @@
       <c r="E15" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1422,8 +1546,14 @@
       <c r="E16" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1439,8 +1569,14 @@
       <c r="E17" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1456,8 +1592,14 @@
       <c r="E18" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1473,8 +1615,14 @@
       <c r="E19" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1490,8 +1638,14 @@
       <c r="E20" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1507,8 +1661,14 @@
       <c r="E21" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1524,8 +1684,14 @@
       <c r="E22" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1541,8 +1707,14 @@
       <c r="E23" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1558,8 +1730,14 @@
       <c r="E24" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1575,8 +1753,14 @@
       <c r="E25" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1592,8 +1776,14 @@
       <c r="E26" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1609,8 +1799,14 @@
       <c r="E27" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1626,8 +1822,14 @@
       <c r="E28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1643,8 +1845,14 @@
       <c r="E29" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1660,8 +1868,14 @@
       <c r="E30" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1677,8 +1891,14 @@
       <c r="E31" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1694,8 +1914,14 @@
       <c r="E32" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1711,8 +1937,14 @@
       <c r="E33" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1728,8 +1960,14 @@
       <c r="E34" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1745,8 +1983,14 @@
       <c r="E35" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1762,8 +2006,14 @@
       <c r="E36" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1779,8 +2029,14 @@
       <c r="E37" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1796,8 +2052,14 @@
       <c r="E38" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1813,8 +2075,14 @@
       <c r="E39" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1830,8 +2098,14 @@
       <c r="E40" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1847,8 +2121,14 @@
       <c r="E41" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1864,8 +2144,14 @@
       <c r="E42" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1881,8 +2167,14 @@
       <c r="E43" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1898,8 +2190,14 @@
       <c r="E44" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1915,8 +2213,14 @@
       <c r="E45" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1932,8 +2236,14 @@
       <c r="E46" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2259,14 @@
       <c r="E47" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2282,14 @@
       <c r="E48" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1983,8 +2305,14 @@
       <c r="E49" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2000,8 +2328,14 @@
       <c r="E50" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2017,8 +2351,14 @@
       <c r="E51" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2034,8 +2374,14 @@
       <c r="E52" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2051,8 +2397,14 @@
       <c r="E53" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2068,8 +2420,14 @@
       <c r="E54" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2085,8 +2443,14 @@
       <c r="E55" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2102,8 +2466,14 @@
       <c r="E56" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2119,8 +2489,14 @@
       <c r="E57" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2136,8 +2512,14 @@
       <c r="E58" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2153,8 +2535,14 @@
       <c r="E59" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2170,8 +2558,14 @@
       <c r="E60" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2187,8 +2581,14 @@
       <c r="E61" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2204,8 +2604,14 @@
       <c r="E62" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2221,8 +2627,14 @@
       <c r="E63" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2238,8 +2650,14 @@
       <c r="E64" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2255,8 +2673,14 @@
       <c r="E65" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2272,8 +2696,14 @@
       <c r="E66" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2289,8 +2719,14 @@
       <c r="E67" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2306,8 +2742,14 @@
       <c r="E68" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2323,8 +2765,14 @@
       <c r="E69" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2340,8 +2788,14 @@
       <c r="E70" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2357,8 +2811,14 @@
       <c r="E71" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2374,8 +2834,14 @@
       <c r="E72" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2391,8 +2857,14 @@
       <c r="E73" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2408,8 +2880,14 @@
       <c r="E74" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2425,8 +2903,14 @@
       <c r="E75" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2442,8 +2926,14 @@
       <c r="E76" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2459,8 +2949,14 @@
       <c r="E77" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2476,8 +2972,14 @@
       <c r="E78" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2493,8 +2995,14 @@
       <c r="E79" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2510,8 +3018,14 @@
       <c r="E80" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2527,8 +3041,14 @@
       <c r="E81" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2544,8 +3064,14 @@
       <c r="E82" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2561,8 +3087,14 @@
       <c r="E83" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2578,8 +3110,14 @@
       <c r="E84" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2595,8 +3133,14 @@
       <c r="E85" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2612,8 +3156,14 @@
       <c r="E86" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2629,8 +3179,14 @@
       <c r="E87" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2646,8 +3202,14 @@
       <c r="E88" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2663,8 +3225,14 @@
       <c r="E89" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2680,8 +3248,14 @@
       <c r="E90" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2697,8 +3271,14 @@
       <c r="E91" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2714,8 +3294,14 @@
       <c r="E92" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2731,8 +3317,14 @@
       <c r="E93" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2748,8 +3340,14 @@
       <c r="E94" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2765,8 +3363,14 @@
       <c r="E95" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2782,8 +3386,14 @@
       <c r="E96" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2799,8 +3409,14 @@
       <c r="E97" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2816,8 +3432,14 @@
       <c r="E98" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2833,8 +3455,14 @@
       <c r="E99" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2850,8 +3478,14 @@
       <c r="E100" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2867,8 +3501,14 @@
       <c r="E101" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2884,8 +3524,14 @@
       <c r="E102" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2901,8 +3547,14 @@
       <c r="E103" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2918,8 +3570,14 @@
       <c r="E104" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2935,8 +3593,14 @@
       <c r="E105" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2952,8 +3616,14 @@
       <c r="E106" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -2969,8 +3639,14 @@
       <c r="E107" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2986,8 +3662,14 @@
       <c r="E108" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -3003,8 +3685,14 @@
       <c r="E109" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -3020,8 +3708,14 @@
       <c r="E110" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3037,8 +3731,14 @@
       <c r="E111" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -3054,8 +3754,14 @@
       <c r="E112" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -3071,8 +3777,14 @@
       <c r="E113" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -3088,8 +3800,14 @@
       <c r="E114" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -3105,8 +3823,14 @@
       <c r="E115" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -3122,8 +3846,14 @@
       <c r="E116" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -3139,8 +3869,14 @@
       <c r="E117" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -3156,8 +3892,14 @@
       <c r="E118" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -3173,8 +3915,14 @@
       <c r="E119" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3190,8 +3938,14 @@
       <c r="E120" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -3207,8 +3961,14 @@
       <c r="E121" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -3224,8 +3984,14 @@
       <c r="E122" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -3241,8 +4007,14 @@
       <c r="E123" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -3258,8 +4030,14 @@
       <c r="E124" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -3275,8 +4053,14 @@
       <c r="E125" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -3292,8 +4076,14 @@
       <c r="E126" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -3309,8 +4099,14 @@
       <c r="E127" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3326,8 +4122,14 @@
       <c r="E128" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -3343,8 +4145,14 @@
       <c r="E129" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3360,8 +4168,14 @@
       <c r="E130" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3377,8 +4191,14 @@
       <c r="E131" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3394,8 +4214,14 @@
       <c r="E132" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -3411,8 +4237,14 @@
       <c r="E133" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -3428,8 +4260,14 @@
       <c r="E134" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -3445,8 +4283,14 @@
       <c r="E135" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -3462,8 +4306,14 @@
       <c r="E136" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -3479,8 +4329,14 @@
       <c r="E137" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -3496,8 +4352,14 @@
       <c r="E138" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -3513,8 +4375,14 @@
       <c r="E139" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -3530,8 +4398,14 @@
       <c r="E140" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -3547,8 +4421,14 @@
       <c r="E141" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -3564,8 +4444,14 @@
       <c r="E142" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -3581,8 +4467,14 @@
       <c r="E143" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -3598,8 +4490,14 @@
       <c r="E144" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -3615,8 +4513,14 @@
       <c r="E145" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -3632,8 +4536,14 @@
       <c r="E146" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -3649,8 +4559,14 @@
       <c r="E147" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -3666,8 +4582,14 @@
       <c r="E148" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -3683,8 +4605,14 @@
       <c r="E149" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -3700,8 +4628,14 @@
       <c r="E150" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -3717,8 +4651,14 @@
       <c r="E151" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -3734,8 +4674,14 @@
       <c r="E152" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -3751,8 +4697,14 @@
       <c r="E153" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -3768,8 +4720,14 @@
       <c r="E154" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -3785,8 +4743,14 @@
       <c r="E155" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -3802,8 +4766,14 @@
       <c r="E156" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -3819,8 +4789,14 @@
       <c r="E157" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -3836,8 +4812,14 @@
       <c r="E158" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -3853,8 +4835,14 @@
       <c r="E159" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -3870,8 +4858,14 @@
       <c r="E160" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -3887,8 +4881,14 @@
       <c r="E161" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -3904,8 +4904,14 @@
       <c r="E162" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -3921,8 +4927,14 @@
       <c r="E163" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -3938,8 +4950,14 @@
       <c r="E164" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -3955,8 +4973,14 @@
       <c r="E165" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -3972,8 +4996,14 @@
       <c r="E166" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -3989,8 +5019,14 @@
       <c r="E167" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -4006,8 +5042,14 @@
       <c r="E168" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -4023,8 +5065,14 @@
       <c r="E169" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -4040,8 +5088,14 @@
       <c r="E170" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -4057,8 +5111,14 @@
       <c r="E171" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -4074,8 +5134,14 @@
       <c r="E172" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -4091,8 +5157,14 @@
       <c r="E173" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -4108,8 +5180,14 @@
       <c r="E174" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -4125,8 +5203,14 @@
       <c r="E175" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -4142,8 +5226,14 @@
       <c r="E176" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -4159,8 +5249,14 @@
       <c r="E177" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -4176,8 +5272,14 @@
       <c r="E178" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -4193,8 +5295,14 @@
       <c r="E179" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -4210,8 +5318,14 @@
       <c r="E180" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -4227,8 +5341,14 @@
       <c r="E181" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -4244,8 +5364,14 @@
       <c r="E182" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -4261,8 +5387,14 @@
       <c r="E183" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -4278,8 +5410,14 @@
       <c r="E184" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -4295,8 +5433,14 @@
       <c r="E185" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -4312,8 +5456,14 @@
       <c r="E186" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -4329,8 +5479,14 @@
       <c r="E187" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -4346,8 +5502,14 @@
       <c r="E188" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -4363,8 +5525,14 @@
       <c r="E189" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -4380,8 +5548,14 @@
       <c r="E190" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -4397,8 +5571,14 @@
       <c r="E191" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -4414,8 +5594,14 @@
       <c r="E192" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -4431,8 +5617,14 @@
       <c r="E193" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -4448,8 +5640,14 @@
       <c r="E194" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -4465,8 +5663,14 @@
       <c r="E195" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -4482,8 +5686,14 @@
       <c r="E196" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -4499,8 +5709,14 @@
       <c r="E197" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -4516,8 +5732,14 @@
       <c r="E198" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -4533,8 +5755,14 @@
       <c r="E199" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -4550,8 +5778,14 @@
       <c r="E200" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -4567,8 +5801,14 @@
       <c r="E201" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -4584,8 +5824,14 @@
       <c r="E202" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -4601,8 +5847,14 @@
       <c r="E203" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -4618,8 +5870,14 @@
       <c r="E204" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -4635,8 +5893,14 @@
       <c r="E205" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -4652,8 +5916,14 @@
       <c r="E206" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -4669,8 +5939,14 @@
       <c r="E207" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -4686,8 +5962,14 @@
       <c r="E208" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -4703,8 +5985,14 @@
       <c r="E209" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -4720,8 +6008,14 @@
       <c r="E210" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -4737,8 +6031,14 @@
       <c r="E211" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -4754,8 +6054,14 @@
       <c r="E212" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -4771,8 +6077,14 @@
       <c r="E213" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -4788,8 +6100,14 @@
       <c r="E214" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -4805,8 +6123,14 @@
       <c r="E215" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -4822,8 +6146,14 @@
       <c r="E216" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -4839,8 +6169,14 @@
       <c r="E217" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -4856,8 +6192,14 @@
       <c r="E218" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -4873,8 +6215,14 @@
       <c r="E219" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -4890,8 +6238,14 @@
       <c r="E220" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -4907,8 +6261,14 @@
       <c r="E221" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -4924,8 +6284,14 @@
       <c r="E222" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -4941,8 +6307,14 @@
       <c r="E223" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -4958,8 +6330,14 @@
       <c r="E224" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -4975,8 +6353,14 @@
       <c r="E225" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -4992,8 +6376,14 @@
       <c r="E226" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -5009,8 +6399,14 @@
       <c r="E227" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -5026,8 +6422,14 @@
       <c r="E228" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -5043,8 +6445,14 @@
       <c r="E229" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -5060,8 +6468,14 @@
       <c r="E230" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -5077,8 +6491,14 @@
       <c r="E231" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -5094,8 +6514,14 @@
       <c r="E232" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -5111,8 +6537,14 @@
       <c r="E233" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -5128,8 +6560,14 @@
       <c r="E234" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -5145,8 +6583,14 @@
       <c r="E235" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -5162,8 +6606,14 @@
       <c r="E236" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -5179,8 +6629,14 @@
       <c r="E237" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -5196,8 +6652,14 @@
       <c r="E238" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -5213,8 +6675,14 @@
       <c r="E239" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -5230,8 +6698,14 @@
       <c r="E240" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -5247,8 +6721,14 @@
       <c r="E241" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -5264,8 +6744,14 @@
       <c r="E242" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -5281,8 +6767,14 @@
       <c r="E243" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -5298,8 +6790,14 @@
       <c r="E244" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -5315,8 +6813,14 @@
       <c r="E245" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -5332,8 +6836,14 @@
       <c r="E246" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -5349,8 +6859,14 @@
       <c r="E247" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -5365,6 +6881,12 @@
       </c>
       <c r="E248" t="s">
         <v>253</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
